--- a/src/test/java/com/employeeapi/utilities/EmpTestData.xlsx
+++ b/src/test/java/com/employeeapi/utilities/EmpTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="15225" windowHeight="4965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:C6"/>
 </workbook>
 </file>
 
@@ -25,19 +26,19 @@
     <t>EMPAGE</t>
   </si>
   <si>
-    <t>ABCP0NN01</t>
+    <t>SFTR006</t>
   </si>
   <si>
-    <t>ABCP0NN02</t>
+    <t>SFTR007</t>
   </si>
   <si>
-    <t>ABCP0NN03</t>
+    <t>SFTR008</t>
   </si>
   <si>
-    <t>ABCP0NN04</t>
+    <t>SFTR009</t>
   </si>
   <si>
-    <t>ABCP0NN05</t>
+    <t>SFTR010</t>
   </si>
 </sst>
 </file>
@@ -45,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,38 +61,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,6 +85,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -113,31 +109,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,53 +130,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +219,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,169 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,36 +428,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -479,6 +454,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -486,17 +472,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,18 +511,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,130 +546,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1003,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1031,7 +1032,7 @@
         <v>11111</v>
       </c>
       <c r="C2" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1042,7 +1043,7 @@
         <v>11112</v>
       </c>
       <c r="C3" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1053,7 +1054,7 @@
         <v>11113</v>
       </c>
       <c r="C4" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1064,7 +1065,7 @@
         <v>11114</v>
       </c>
       <c r="C5" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/src/test/java/com/employeeapi/utilities/EmpTestData.xlsx
+++ b/src/test/java/com/employeeapi/utilities/EmpTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15225" windowHeight="4965"/>
+    <workbookView windowWidth="15225" windowHeight="1500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,19 @@
     <t>EMPAGE</t>
   </si>
   <si>
-    <t>SFTR006</t>
+    <t>SYFTR0000</t>
   </si>
   <si>
-    <t>SFTR007</t>
+    <t>SYFTR0001</t>
   </si>
   <si>
-    <t>SFTR008</t>
+    <t>SYFTR0002</t>
   </si>
   <si>
-    <t>SFTR009</t>
+    <t>SYFTR0003</t>
   </si>
   <si>
-    <t>SFTR010</t>
+    <t>SYFTR0004</t>
   </si>
 </sst>
 </file>
@@ -46,9 +46,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -67,6 +67,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -75,123 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,181 +225,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,35 +452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -492,6 +463,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +491,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -525,10 +514,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,130 +546,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1029,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>11111</v>
+        <v>111111</v>
       </c>
       <c r="C2" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>11112</v>
+        <v>111112</v>
       </c>
       <c r="C3" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>11113</v>
+        <v>111113</v>
       </c>
       <c r="C4" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1062,10 +1062,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>11114</v>
+        <v>111114</v>
       </c>
       <c r="C5" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1073,10 +1073,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>11115</v>
+        <v>111115</v>
       </c>
       <c r="C6" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
